--- a/data/data_real3.xlsx
+++ b/data/data_real3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED92DE6-8A48-4814-9715-D3FE1F2CFF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B69CE-8616-49D1-9A21-A7B170CED3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="3" r:id="rId1"/>
@@ -4799,7 +4799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5066" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5068" uniqueCount="647">
   <si>
     <t>월</t>
   </si>
@@ -6769,6 +6769,9 @@
   </si>
   <si>
     <t>PAIR관계인 확정블록이 있다면.. 확정블록의 정반계열이 후속 검토블록의 가능정반계열로 연결된다</t>
+  </si>
+  <si>
+    <t>fddd</t>
   </si>
 </sst>
 </file>
@@ -6929,7 +6932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -7088,6 +7091,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7099,7 +7168,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -7271,28 +7340,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="10" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7308,9 +7356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7337,7 +7382,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7382,7 +7462,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
@@ -7394,7 +7474,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8319,10 +8399,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5B1F8CB-5C77-46B2-9BD0-194EC3A34B61}" name="Table1" displayName="Table1" ref="A1:R189" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5B1F8CB-5C77-46B2-9BD0-194EC3A34B61}" name="Table1" displayName="Table1" ref="A1:R189" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:R189" xr:uid="{E5B1F8CB-5C77-46B2-9BD0-194EC3A34B61}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:R189">
-    <sortCondition ref="D1:D189"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R189">
+    <sortCondition ref="A1:A189"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A5E02E1A-3A7F-46A5-AE15-B2DBB31916DC}" name="blk_id"/>
@@ -8335,12 +8415,12 @@
     <tableColumn id="8" xr3:uid="{F54E0A21-0EE4-404E-A704-1892CBCB04EA}" name="용접장"/>
     <tableColumn id="9" xr3:uid="{21665C37-17CD-481C-BA8A-C545D82D9B41}" name="가로"/>
     <tableColumn id="10" xr3:uid="{4040E343-6ACA-4629-ADA6-B00DC47CE438}" name="세로"/>
-    <tableColumn id="11" xr3:uid="{01DFB90F-5520-4BAC-9E1E-805822D36BD7}" name="중_착수일" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C55B4634-1D38-4AD7-87EC-FF83325EB2A5}" name="중_완료일" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{01DFB90F-5520-4BAC-9E1E-805822D36BD7}" name="중_착수일" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C55B4634-1D38-4AD7-87EC-FF83325EB2A5}" name="중_완료일" dataDxfId="9"/>
     <tableColumn id="13" xr3:uid="{97383495-71B0-42E0-A332-02A3BA0C8AA7}" name="표준공기"/>
     <tableColumn id="14" xr3:uid="{88F9DDF1-6073-4D8C-B9A4-7370330BC8D7}" name="정반명"/>
-    <tableColumn id="15" xr3:uid="{B089ECD4-D556-4E3F-B1A8-0D1AA99B94E8}" name="실_착수일" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{78568590-E4E3-450E-B1D3-36B726745063}" name="실_완료일" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{B089ECD4-D556-4E3F-B1A8-0D1AA99B94E8}" name="실_착수일" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{78568590-E4E3-450E-B1D3-36B726745063}" name="실_완료일" dataDxfId="7"/>
     <tableColumn id="17" xr3:uid="{CC3396B7-A477-4D49-BB7E-FB8F01C1BC9D}" name="실_공기"/>
     <tableColumn id="18" xr3:uid="{429C7ABF-BE6B-45F3-ADE4-0548E3747C5F}" name="좌상단좌표"/>
   </tableColumns>
@@ -8643,8 +8723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A21FCA4-AAE2-4055-B8F7-87592F2EEB7E}">
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K198" sqref="K198"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8918,7 +8998,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>610</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>27</v>
@@ -8952,6 +9032,9 @@
       </c>
       <c r="M6" s="7">
         <v>14</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>608</v>
       </c>
       <c r="O6" s="54">
         <v>45345</v>
@@ -9515,7 +9598,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>610</v>
@@ -9524,43 +9607,43 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>405.2</v>
+        <v>217.5</v>
       </c>
       <c r="I18">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>8.1</v>
+        <v>11.1</v>
       </c>
       <c r="K18" s="53">
-        <v>45357</v>
+        <v>45351</v>
       </c>
       <c r="L18" s="53">
+        <v>45365</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="O18" s="53">
+        <v>45350</v>
+      </c>
+      <c r="P18" s="53">
         <v>45363</v>
       </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="O18" s="53">
-        <v>45356</v>
-      </c>
-      <c r="P18" s="53">
-        <v>45364</v>
-      </c>
       <c r="Q18">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -9815,7 +9898,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>610</v>
@@ -9824,25 +9907,25 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F24">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>241.1</v>
+        <v>401.9</v>
       </c>
       <c r="I24">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="J24">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
       <c r="K24" s="53">
         <v>45357</v>
@@ -9854,13 +9937,13 @@
         <v>6</v>
       </c>
       <c r="O24" s="53">
-        <v>45356</v>
+        <v>45352</v>
       </c>
       <c r="P24" s="53">
-        <v>45364</v>
+        <v>45359</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -10115,7 +10198,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>610</v>
@@ -10127,45 +10210,45 @@
         <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="F30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>480.2</v>
+        <v>405.2</v>
       </c>
       <c r="I30">
-        <v>10.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>8.1</v>
       </c>
       <c r="K30" s="53">
+        <v>45357</v>
+      </c>
+      <c r="L30" s="53">
         <v>45363</v>
       </c>
-      <c r="L30" s="53">
-        <v>45378</v>
-      </c>
       <c r="M30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O30" s="53">
-        <v>45362</v>
+        <v>45356</v>
       </c>
       <c r="P30" s="53">
-        <v>45380</v>
+        <v>45364</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>610</v>
@@ -10174,25 +10257,25 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F31">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>401.9</v>
+        <v>241.1</v>
       </c>
       <c r="I31">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J31">
-        <v>8.1</v>
+        <v>3.2</v>
       </c>
       <c r="K31" s="53">
         <v>45357</v>
@@ -10204,13 +10287,13 @@
         <v>6</v>
       </c>
       <c r="O31" s="53">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="P31" s="53">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -10715,7 +10798,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>610</v>
@@ -10724,48 +10807,48 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F42">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G42">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H42">
-        <v>251.8</v>
+        <v>214.8</v>
       </c>
       <c r="I42">
-        <v>3.1</v>
+        <v>13.9</v>
       </c>
       <c r="J42">
-        <v>13.4</v>
+        <v>3.6</v>
       </c>
       <c r="K42" s="53">
-        <v>45400</v>
+        <v>45364</v>
       </c>
       <c r="L42" s="53">
-        <v>45412</v>
+        <v>45370</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O42" s="53">
-        <v>45392</v>
+        <v>45359</v>
       </c>
       <c r="P42" s="53">
-        <v>45406</v>
+        <v>45366</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>610</v>
@@ -10774,48 +10857,48 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43">
-        <v>217.5</v>
+        <v>214.8</v>
       </c>
       <c r="I43">
-        <v>7.8</v>
+        <v>13.9</v>
       </c>
       <c r="J43">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
       <c r="K43" s="53">
-        <v>45351</v>
+        <v>45364</v>
       </c>
       <c r="L43" s="53">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O43" s="53">
-        <v>45350</v>
+        <v>45359</v>
       </c>
       <c r="P43" s="53">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>610</v>
@@ -10824,48 +10907,48 @@
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="F44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G44">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>521.1</v>
+        <v>169.9</v>
       </c>
       <c r="I44">
-        <v>13.8</v>
+        <v>11</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="K44" s="53">
-        <v>45380</v>
+        <v>45365</v>
       </c>
       <c r="L44" s="53">
-        <v>45386</v>
+        <v>45371</v>
       </c>
       <c r="M44">
         <v>6</v>
       </c>
       <c r="O44" s="53">
-        <v>45378</v>
+        <v>45359</v>
       </c>
       <c r="P44" s="53">
-        <v>45391</v>
+        <v>45365</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>610</v>
@@ -10874,43 +10957,43 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F45">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>495.9</v>
+        <v>175.9</v>
       </c>
       <c r="I45">
-        <v>13.8</v>
+        <v>11</v>
       </c>
       <c r="J45">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="K45" s="53">
-        <v>45386</v>
+        <v>45365</v>
       </c>
       <c r="L45" s="53">
-        <v>45406</v>
+        <v>45371</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O45" s="53">
-        <v>45391</v>
+        <v>45359</v>
       </c>
       <c r="P45" s="53">
-        <v>45408</v>
+        <v>45365</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -11165,7 +11248,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>610</v>
@@ -11174,48 +11257,48 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="F51">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>542.70000000000005</v>
+        <v>480.2</v>
       </c>
       <c r="I51">
-        <v>13.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J51">
         <v>11</v>
       </c>
       <c r="K51" s="53">
+        <v>45363</v>
+      </c>
+      <c r="L51" s="53">
+        <v>45378</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="O51" s="53">
+        <v>45362</v>
+      </c>
+      <c r="P51" s="53">
         <v>45380</v>
       </c>
-      <c r="L51" s="53">
-        <v>45386</v>
-      </c>
-      <c r="M51">
-        <v>6</v>
-      </c>
-      <c r="O51" s="53">
-        <v>45390</v>
-      </c>
-      <c r="P51" s="53">
-        <v>45394</v>
-      </c>
       <c r="Q51">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>610</v>
@@ -11224,48 +11307,48 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="F52">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G52">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>531</v>
+        <v>35</v>
       </c>
       <c r="I52">
-        <v>13.8</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K52" s="53">
-        <v>45386</v>
+        <v>45369</v>
       </c>
       <c r="L52" s="53">
-        <v>45406</v>
+        <v>45373</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O52" s="53">
-        <v>45392</v>
+        <v>45362</v>
       </c>
       <c r="P52" s="53">
-        <v>45406</v>
+        <v>45366</v>
       </c>
       <c r="Q52">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>610</v>
@@ -11274,43 +11357,43 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="F53">
         <v>48</v>
       </c>
       <c r="G53">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H53">
-        <v>467.6</v>
+        <v>37.5</v>
       </c>
       <c r="I53">
-        <v>12.8</v>
+        <v>6</v>
       </c>
       <c r="J53">
-        <v>14.3</v>
+        <v>6</v>
       </c>
       <c r="K53" s="53">
-        <v>45386</v>
+        <v>45369</v>
       </c>
       <c r="L53" s="53">
-        <v>45393</v>
+        <v>45373</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O53" s="53">
-        <v>45391</v>
+        <v>45362</v>
       </c>
       <c r="P53" s="53">
-        <v>45399</v>
+        <v>45366</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -11965,7 +12048,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>610</v>
@@ -11974,48 +12057,48 @@
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F67">
         <v>41</v>
       </c>
       <c r="G67">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>561</v>
+        <v>268.5</v>
       </c>
       <c r="I67">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="J67">
-        <v>11</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K67" s="53">
-        <v>45393</v>
+        <v>45370</v>
       </c>
       <c r="L67" s="53">
-        <v>45412</v>
+        <v>45380</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O67" s="53">
-        <v>45399</v>
+        <v>45366</v>
       </c>
       <c r="P67" s="53">
-        <v>45414</v>
+        <v>45380</v>
       </c>
       <c r="Q67">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>610</v>
@@ -12024,43 +12107,43 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="F68">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>466.4</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="I68">
-        <v>14.3</v>
+        <v>12.9</v>
       </c>
       <c r="J68">
-        <v>11</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K68" s="53">
-        <v>45386</v>
+        <v>45370</v>
       </c>
       <c r="L68" s="53">
-        <v>45393</v>
+        <v>45380</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O68" s="53">
-        <v>45385</v>
+        <v>45366</v>
       </c>
       <c r="P68" s="53">
-        <v>45397</v>
+        <v>45384</v>
       </c>
       <c r="Q68">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -12165,7 +12248,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>610</v>
@@ -12174,48 +12257,48 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F71">
         <v>41</v>
       </c>
       <c r="G71">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>667</v>
+        <v>285.5</v>
       </c>
       <c r="I71">
-        <v>14.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J71">
-        <v>11</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K71" s="53">
-        <v>45393</v>
+        <v>45371</v>
       </c>
       <c r="L71" s="53">
-        <v>45412</v>
+        <v>45387</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O71" s="53">
-        <v>45399</v>
+        <v>45369</v>
       </c>
       <c r="P71" s="53">
-        <v>45412</v>
+        <v>45383</v>
       </c>
       <c r="Q71">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>610</v>
@@ -12224,43 +12307,43 @@
         <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="F72">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G72">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>257.10000000000002</v>
+        <v>263.7</v>
       </c>
       <c r="I72">
-        <v>12.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J72">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K72" s="53">
         <v>45371</v>
       </c>
       <c r="L72" s="53">
-        <v>45377</v>
+        <v>45387</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O72" s="53">
-        <v>45373</v>
+        <v>45369</v>
       </c>
       <c r="P72" s="53">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="Q72">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -12765,7 +12848,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>610</v>
@@ -12774,48 +12857,48 @@
         <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G83">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H83">
-        <v>596</v>
+        <v>337.3</v>
       </c>
       <c r="I83">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="J83">
-        <v>10.1</v>
+        <v>3.2</v>
       </c>
       <c r="K83" s="53">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="L83" s="53">
-        <v>45377</v>
+        <v>45386</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O83" s="53">
-        <v>45377</v>
+        <v>45372</v>
       </c>
       <c r="P83" s="53">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="Q83">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>610</v>
@@ -12824,43 +12907,43 @@
         <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H84">
-        <v>495.4</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="I84">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="J84">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="K84" s="53">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="L84" s="53">
-        <v>45397</v>
+        <v>45386</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O84" s="53">
-        <v>45386</v>
+        <v>45372</v>
       </c>
       <c r="P84" s="53">
-        <v>45398</v>
+        <v>45387</v>
       </c>
       <c r="Q84">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -12915,7 +12998,7 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>610</v>
@@ -12924,7 +13007,7 @@
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
         <v>191</v>
@@ -12965,7 +13048,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>610</v>
@@ -12977,22 +13060,22 @@
         <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="F87">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G87">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H87">
-        <v>596</v>
+        <v>257.10000000000002</v>
       </c>
       <c r="I87">
         <v>12.9</v>
       </c>
       <c r="J87">
-        <v>10.1</v>
+        <v>7.9</v>
       </c>
       <c r="K87" s="53">
         <v>45371</v>
@@ -13004,13 +13087,13 @@
         <v>6</v>
       </c>
       <c r="O87" s="53">
-        <v>45378</v>
+        <v>45373</v>
       </c>
       <c r="P87" s="53">
-        <v>45385</v>
+        <v>45383</v>
       </c>
       <c r="Q87">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -13513,103 +13596,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
-      <c r="A98">
+    <row r="98" spans="1:17" s="7" customFormat="1">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="7">
         <v>48</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="7">
         <v>17</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="7">
         <v>322.8</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="7">
         <v>14.2</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="7">
         <v>4.3</v>
       </c>
-      <c r="K98" s="53">
+      <c r="K98" s="54">
         <v>45379</v>
       </c>
-      <c r="L98" s="53">
+      <c r="L98" s="54">
         <v>45384</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="7">
         <v>5</v>
       </c>
-      <c r="O98" s="53">
+      <c r="O98" s="54">
         <v>45377</v>
       </c>
-      <c r="P98" s="53">
+      <c r="P98" s="54">
         <v>45387</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="99" spans="1:17" s="7" customFormat="1">
+      <c r="A99" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="7">
         <v>48</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="7">
         <v>17</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="7">
         <v>322.8</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="7">
         <v>14.2</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="7">
         <v>4.3</v>
       </c>
-      <c r="K99" s="53">
+      <c r="K99" s="54">
         <v>45379</v>
       </c>
-      <c r="L99" s="53">
+      <c r="L99" s="54">
         <v>45384</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="7">
         <v>5</v>
       </c>
-      <c r="O99" s="53">
+      <c r="O99" s="54">
         <v>45377</v>
       </c>
-      <c r="P99" s="53">
+      <c r="P99" s="54">
         <v>45387</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" s="7">
         <v>10</v>
       </c>
     </row>
@@ -13665,7 +13748,7 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>610</v>
@@ -13674,48 +13757,48 @@
         <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F101">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G101">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H101">
-        <v>492</v>
+        <v>596</v>
       </c>
       <c r="I101">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="J101">
-        <v>11</v>
+        <v>10.1</v>
       </c>
       <c r="K101" s="53">
+        <v>45371</v>
+      </c>
+      <c r="L101" s="53">
         <v>45377</v>
       </c>
-      <c r="L101" s="53">
-        <v>45397</v>
-      </c>
       <c r="M101">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O101" s="53">
-        <v>45383</v>
+        <v>45377</v>
       </c>
       <c r="P101" s="53">
-        <v>45398</v>
+        <v>45385</v>
       </c>
       <c r="Q101">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>610</v>
@@ -13724,48 +13807,48 @@
         <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="F102">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G102">
+        <v>51</v>
+      </c>
+      <c r="H102">
+        <v>521.1</v>
+      </c>
+      <c r="I102">
+        <v>13.8</v>
+      </c>
+      <c r="J102">
+        <v>11</v>
+      </c>
+      <c r="K102" s="53">
+        <v>45380</v>
+      </c>
+      <c r="L102" s="53">
+        <v>45386</v>
+      </c>
+      <c r="M102">
         <v>6</v>
       </c>
-      <c r="H102">
-        <v>35</v>
-      </c>
-      <c r="I102">
-        <v>6</v>
-      </c>
-      <c r="J102">
-        <v>6</v>
-      </c>
-      <c r="K102" s="53">
-        <v>45369</v>
-      </c>
-      <c r="L102" s="53">
-        <v>45373</v>
-      </c>
-      <c r="M102">
-        <v>4</v>
-      </c>
       <c r="O102" s="53">
-        <v>45362</v>
+        <v>45378</v>
       </c>
       <c r="P102" s="53">
-        <v>45366</v>
+        <v>45391</v>
       </c>
       <c r="Q102">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>610</v>
@@ -13774,43 +13857,43 @@
         <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F103">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G103">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H103">
-        <v>337.3</v>
+        <v>596</v>
       </c>
       <c r="I103">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="J103">
-        <v>3.2</v>
+        <v>10.1</v>
       </c>
       <c r="K103" s="53">
-        <v>45373</v>
+        <v>45371</v>
       </c>
       <c r="L103" s="53">
-        <v>45386</v>
+        <v>45377</v>
       </c>
       <c r="M103">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O103" s="53">
-        <v>45372</v>
+        <v>45378</v>
       </c>
       <c r="P103" s="53">
-        <v>45390</v>
+        <v>45385</v>
       </c>
       <c r="Q103">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -14015,7 +14098,7 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>610</v>
@@ -14024,43 +14107,43 @@
         <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="F108">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G108">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H108">
-        <v>37.5</v>
+        <v>492</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>11.9</v>
       </c>
       <c r="J108">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K108" s="53">
-        <v>45369</v>
+        <v>45377</v>
       </c>
       <c r="L108" s="53">
-        <v>45373</v>
+        <v>45397</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O108" s="53">
-        <v>45362</v>
+        <v>45383</v>
       </c>
       <c r="P108" s="53">
-        <v>45366</v>
+        <v>45398</v>
       </c>
       <c r="Q108">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -14965,7 +15048,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>610</v>
@@ -14974,43 +15057,43 @@
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="F127">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G127">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H127">
-        <v>322.10000000000002</v>
+        <v>466.4</v>
       </c>
       <c r="I127">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="J127">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="K127" s="53">
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="L127" s="53">
-        <v>45386</v>
+        <v>45393</v>
       </c>
       <c r="M127">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O127" s="53">
-        <v>45372</v>
+        <v>45385</v>
       </c>
       <c r="P127" s="53">
-        <v>45387</v>
+        <v>45397</v>
       </c>
       <c r="Q127">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -15115,7 +15198,7 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>610</v>
@@ -15124,43 +15207,43 @@
         <v>40</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F130">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G130">
+        <v>60</v>
+      </c>
+      <c r="H130">
+        <v>495.4</v>
+      </c>
+      <c r="I130">
+        <v>11.9</v>
+      </c>
+      <c r="J130">
         <v>11</v>
       </c>
-      <c r="H130">
-        <v>214.8</v>
-      </c>
-      <c r="I130">
-        <v>13.9</v>
-      </c>
-      <c r="J130">
-        <v>3.6</v>
-      </c>
       <c r="K130" s="53">
-        <v>45364</v>
+        <v>45377</v>
       </c>
       <c r="L130" s="53">
-        <v>45370</v>
+        <v>45397</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O130" s="53">
-        <v>45359</v>
+        <v>45386</v>
       </c>
       <c r="P130" s="53">
-        <v>45366</v>
+        <v>45398</v>
       </c>
       <c r="Q130">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -15565,7 +15648,7 @@
     </row>
     <row r="139" spans="1:17">
       <c r="A139">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>610</v>
@@ -15574,43 +15657,43 @@
         <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="F139">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G139">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>268.5</v>
+        <v>542.70000000000005</v>
       </c>
       <c r="I139">
-        <v>12</v>
+        <v>13.8</v>
       </c>
       <c r="J139">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="K139" s="53">
-        <v>45370</v>
+        <v>45380</v>
       </c>
       <c r="L139" s="53">
-        <v>45380</v>
+        <v>45386</v>
       </c>
       <c r="M139">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O139" s="53">
-        <v>45366</v>
+        <v>45390</v>
       </c>
       <c r="P139" s="53">
-        <v>45380</v>
+        <v>45394</v>
       </c>
       <c r="Q139">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -15763,109 +15846,109 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
-      <c r="A143">
+    <row r="143" spans="1:17" s="7" customFormat="1">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="7">
         <v>43</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="7">
         <v>37</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="7">
         <v>386.6</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="7">
         <v>14.2</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="7">
         <v>10</v>
       </c>
-      <c r="K143" s="53">
+      <c r="K143" s="54">
         <v>45393</v>
       </c>
-      <c r="L143" s="53">
+      <c r="L143" s="54">
         <v>45398</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="7">
         <v>5</v>
       </c>
-      <c r="O143" s="53">
+      <c r="O143" s="54">
         <v>45391</v>
       </c>
-      <c r="P143" s="53">
+      <c r="P143" s="54">
         <v>45398</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
-      <c r="A144">
+    <row r="144" spans="1:17" s="7" customFormat="1">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="7">
         <v>43</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="7">
         <v>37</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="7">
         <v>386.6</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="7">
         <v>14.2</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="7">
         <v>10</v>
       </c>
-      <c r="K144" s="53">
+      <c r="K144" s="54">
         <v>45393</v>
       </c>
-      <c r="L144" s="53">
+      <c r="L144" s="54">
         <v>45398</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="7">
         <v>5</v>
       </c>
-      <c r="O144" s="53">
+      <c r="O144" s="54">
         <v>45391</v>
       </c>
-      <c r="P144" s="53">
+      <c r="P144" s="54">
         <v>45398</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="A145">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>610</v>
@@ -15874,48 +15957,48 @@
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="E145" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F145">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G145">
+        <v>71</v>
+      </c>
+      <c r="H145">
+        <v>495.9</v>
+      </c>
+      <c r="I145">
+        <v>13.8</v>
+      </c>
+      <c r="J145">
         <v>11</v>
       </c>
-      <c r="H145">
-        <v>214.8</v>
-      </c>
-      <c r="I145">
-        <v>13.9</v>
-      </c>
-      <c r="J145">
-        <v>3.6</v>
-      </c>
       <c r="K145" s="53">
-        <v>45364</v>
+        <v>45386</v>
       </c>
       <c r="L145" s="53">
-        <v>45370</v>
+        <v>45406</v>
       </c>
       <c r="M145">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O145" s="53">
-        <v>45359</v>
+        <v>45391</v>
       </c>
       <c r="P145" s="53">
-        <v>45366</v>
+        <v>45408</v>
       </c>
       <c r="Q145">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:17">
       <c r="A146">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>610</v>
@@ -15924,48 +16007,48 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="F146">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G146">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H146">
-        <v>268.39999999999998</v>
+        <v>467.6</v>
       </c>
       <c r="I146">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="J146">
-        <v>9.8000000000000007</v>
+        <v>14.3</v>
       </c>
       <c r="K146" s="53">
-        <v>45370</v>
+        <v>45386</v>
       </c>
       <c r="L146" s="53">
-        <v>45380</v>
+        <v>45393</v>
       </c>
       <c r="M146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O146" s="53">
-        <v>45366</v>
+        <v>45391</v>
       </c>
       <c r="P146" s="53">
-        <v>45384</v>
+        <v>45399</v>
       </c>
       <c r="Q146">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:17">
       <c r="A147">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>610</v>
@@ -15974,48 +16057,48 @@
         <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="E147" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F147">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>169.9</v>
+        <v>251.8</v>
       </c>
       <c r="I147">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="J147">
-        <v>4.3</v>
+        <v>13.4</v>
       </c>
       <c r="K147" s="53">
-        <v>45365</v>
+        <v>45400</v>
       </c>
       <c r="L147" s="53">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="M147">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O147" s="53">
-        <v>45359</v>
+        <v>45392</v>
       </c>
       <c r="P147" s="53">
-        <v>45365</v>
+        <v>45406</v>
       </c>
       <c r="Q147">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:17">
       <c r="A148">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>610</v>
@@ -16024,40 +16107,40 @@
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F148">
         <v>41</v>
       </c>
       <c r="G148">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H148">
-        <v>285.5</v>
+        <v>531</v>
       </c>
       <c r="I148">
-        <v>10.199999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="J148">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="K148" s="53">
-        <v>45371</v>
+        <v>45386</v>
       </c>
       <c r="L148" s="53">
-        <v>45387</v>
+        <v>45406</v>
       </c>
       <c r="M148">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O148" s="53">
-        <v>45369</v>
+        <v>45392</v>
       </c>
       <c r="P148" s="53">
-        <v>45383</v>
+        <v>45406</v>
       </c>
       <c r="Q148">
         <v>14</v>
@@ -16165,7 +16248,7 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>610</v>
@@ -16174,40 +16257,40 @@
         <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="E151" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="F151">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G151">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H151">
-        <v>175.9</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="I151">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="J151">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="K151" s="53">
-        <v>45365</v>
+        <v>45391</v>
       </c>
       <c r="L151" s="53">
-        <v>45371</v>
+        <v>45398</v>
       </c>
       <c r="M151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O151" s="53">
-        <v>45359</v>
+        <v>45393</v>
       </c>
       <c r="P151" s="53">
-        <v>45365</v>
+        <v>45399</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -16215,7 +16298,7 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>610</v>
@@ -16224,43 +16307,43 @@
         <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="F152">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G152">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H152">
-        <v>263.7</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="I152">
-        <v>10.199999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="J152">
-        <v>9.8000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="K152" s="53">
-        <v>45371</v>
+        <v>45391</v>
       </c>
       <c r="L152" s="53">
-        <v>45387</v>
+        <v>45398</v>
       </c>
       <c r="M152">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O152" s="53">
-        <v>45369</v>
+        <v>45393</v>
       </c>
       <c r="P152" s="53">
-        <v>45384</v>
+        <v>45399</v>
       </c>
       <c r="Q152">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:17" s="7" customFormat="1">
@@ -16465,7 +16548,7 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>610</v>
@@ -16474,48 +16557,48 @@
         <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E157" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F157">
+        <v>41</v>
+      </c>
+      <c r="G157">
         <v>45</v>
       </c>
-      <c r="G157">
-        <v>6</v>
-      </c>
       <c r="H157">
-        <v>529.29999999999995</v>
+        <v>322.3</v>
       </c>
       <c r="I157">
-        <v>16.8</v>
+        <v>13.8</v>
       </c>
       <c r="J157">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K157" s="53">
-        <v>45406</v>
+        <v>45399</v>
       </c>
       <c r="L157" s="53">
-        <v>45412</v>
+        <v>45420</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O157" s="53">
-        <v>45401</v>
+        <v>45397</v>
       </c>
       <c r="P157" s="53">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="Q157">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>610</v>
@@ -16524,43 +16607,43 @@
         <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E158" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F158">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G158">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>513.5</v>
+        <v>313.2</v>
       </c>
       <c r="I158">
-        <v>16.8</v>
+        <v>13.8</v>
       </c>
       <c r="J158">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K158" s="53">
-        <v>45406</v>
+        <v>45399</v>
       </c>
       <c r="L158" s="53">
-        <v>45412</v>
+        <v>45420</v>
       </c>
       <c r="M158">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O158" s="53">
-        <v>45401</v>
+        <v>45397</v>
       </c>
       <c r="P158" s="53">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="Q158">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -17015,7 +17098,7 @@
     </row>
     <row r="168" spans="1:17">
       <c r="A168">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>610</v>
@@ -17024,48 +17107,48 @@
         <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="E168" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="F168">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G168">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="H168">
-        <v>261.10000000000002</v>
+        <v>561</v>
       </c>
       <c r="I168">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="J168">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="K168" s="53">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="L168" s="53">
-        <v>45398</v>
+        <v>45412</v>
       </c>
       <c r="M168">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O168" s="53">
-        <v>45393</v>
+        <v>45399</v>
       </c>
       <c r="P168" s="53">
-        <v>45399</v>
+        <v>45414</v>
       </c>
       <c r="Q168">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:17">
       <c r="A169">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>610</v>
@@ -17074,43 +17157,43 @@
         <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="E169" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F169">
         <v>41</v>
       </c>
       <c r="G169">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H169">
-        <v>322.3</v>
+        <v>667</v>
       </c>
       <c r="I169">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="J169">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="K169" s="53">
+        <v>45393</v>
+      </c>
+      <c r="L169" s="53">
+        <v>45412</v>
+      </c>
+      <c r="M169">
+        <v>19</v>
+      </c>
+      <c r="O169" s="53">
         <v>45399</v>
       </c>
-      <c r="L169" s="53">
-        <v>45420</v>
-      </c>
-      <c r="M169">
-        <v>21</v>
-      </c>
-      <c r="O169" s="53">
-        <v>45397</v>
-      </c>
       <c r="P169" s="53">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="Q169">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -17415,7 +17498,7 @@
     </row>
     <row r="176" spans="1:17">
       <c r="A176">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>610</v>
@@ -17424,48 +17507,48 @@
         <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E176" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="F176">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G176">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H176">
-        <v>283.10000000000002</v>
+        <v>529.29999999999995</v>
       </c>
       <c r="I176">
-        <v>13.8</v>
+        <v>16.8</v>
       </c>
       <c r="J176">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="K176" s="53">
-        <v>45391</v>
+        <v>45406</v>
       </c>
       <c r="L176" s="53">
-        <v>45398</v>
+        <v>45412</v>
       </c>
       <c r="M176">
+        <v>6</v>
+      </c>
+      <c r="O176" s="53">
+        <v>45401</v>
+      </c>
+      <c r="P176" s="53">
+        <v>45408</v>
+      </c>
+      <c r="Q176">
         <v>7</v>
-      </c>
-      <c r="O176" s="53">
-        <v>45393</v>
-      </c>
-      <c r="P176" s="53">
-        <v>45399</v>
-      </c>
-      <c r="Q176">
-        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:17">
       <c r="A177">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>610</v>
@@ -17474,43 +17557,43 @@
         <v>40</v>
       </c>
       <c r="D177" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F177">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G177">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H177">
-        <v>313.2</v>
+        <v>513.5</v>
       </c>
       <c r="I177">
-        <v>13.8</v>
+        <v>16.8</v>
       </c>
       <c r="J177">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K177" s="53">
-        <v>45399</v>
+        <v>45406</v>
       </c>
       <c r="L177" s="53">
-        <v>45420</v>
+        <v>45412</v>
       </c>
       <c r="M177">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="O177" s="53">
-        <v>45397</v>
+        <v>45401</v>
       </c>
       <c r="P177" s="53">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="Q177">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -18294,8 +18377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B73E3B-D770-4E6E-BEBD-1ADA98FBE2C3}">
   <dimension ref="B3:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15"/>
@@ -18307,504 +18390,504 @@
     <col min="8" max="8" width="19.5703125" style="51" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="51" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="69" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="62" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="51" customWidth="1"/>
     <col min="13" max="16384" width="13.42578125" style="51"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:12">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="61" t="s">
         <v>629</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="K4" s="67" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="K4" s="61" t="s">
         <v>625</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="61" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="56" t="s">
         <v>615</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="61" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="E6" s="61" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="E6" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="67" t="s">
         <v>639</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="61" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="E7" s="64" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="E7" s="58" t="s">
         <v>617</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="59" t="s">
         <v>624</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="68" t="s">
         <v>639</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="61" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="E9" s="70" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="E9" s="63" t="s">
         <v>612</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="E10" s="61" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="E10" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="67" t="s">
         <v>639</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="61" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="E11" s="64" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="E11" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="59" t="s">
         <v>621</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="59" t="s">
         <v>640</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="68" t="s">
         <v>639</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="K11" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="61" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="E13" s="70" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="E13" s="63" t="s">
         <v>628</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="E14" s="64" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="E14" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="59" t="s">
         <v>618</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="59" t="s">
         <v>620</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="68" t="s">
         <v>639</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="L14" s="76" t="s">
+      <c r="L14" s="69" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="E17" s="61" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="E17" s="56" t="s">
         <v>615</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="K17" s="67" t="s">
+      <c r="K17" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="L17" s="61" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="E18" s="61" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="E18" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="67" t="s">
         <v>639</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="L18" s="61" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="E19" s="64" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="E19" s="58" t="s">
         <v>617</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="59" t="s">
         <v>624</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="68" t="s">
         <v>639</v>
       </c>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="L19" s="61" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="63" t="s">
         <v>612</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="E22" s="61" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="E22" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="K22" s="67" t="s">
+      <c r="K22" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="61" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="E23" s="64" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="E23" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="59" t="s">
         <v>621</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="K23" s="67" t="s">
+      <c r="I23" s="60"/>
+      <c r="K23" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="L23" s="67" t="s">
+      <c r="L23" s="61" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="E25" s="70" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="E25" s="63" t="s">
         <v>628</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="E26" s="64" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="E26" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="59" t="s">
         <v>618</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="59" t="s">
         <v>620</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="K26" s="76" t="s">
+      <c r="I26" s="60"/>
+      <c r="K26" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="L26" s="76" t="s">
+      <c r="L26" s="69" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="E29" s="77" t="s">
+      <c r="E29" t="s">
         <v>645</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="61" t="s">
         <v>641</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="61" t="s">
         <v>643</v>
       </c>
-      <c r="H31" s="77"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="61" t="s">
         <v>636</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="61" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="61" t="s">
         <v>635</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="61" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="61" t="s">
         <v>637</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="61" t="s">
         <v>607</v>
       </c>
     </row>
@@ -32468,28 +32551,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="20.25">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="15">
       <c r="C2" s="9" t="s">
@@ -32522,54 +32605,54 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="79" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58" t="s">
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="V3" s="60" t="s">
+      <c r="V3" s="80" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="16" t="s">
         <v>333</v>
       </c>
@@ -32612,8 +32695,8 @@
       <c r="T4" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="60"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="80"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1">
       <c r="A5" s="15" t="str">
@@ -35072,10 +35155,10 @@
       <c r="B48" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="76">
         <v>3</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="33">
         <f>SUMIF($W$5:$W$1141,C48,$E$5:$E$1141)</f>
         <v>2531</v>
@@ -37846,10 +37929,10 @@
       <c r="B97" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="C97" s="56">
+      <c r="C97" s="76">
         <v>4</v>
       </c>
-      <c r="D97" s="56"/>
+      <c r="D97" s="76"/>
       <c r="E97" s="33">
         <f>SUMIF($W$5:$W$1141,C97,$E$5:$E$1141)</f>
         <v>2563</v>
@@ -40409,10 +40492,10 @@
       <c r="B142" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="C142" s="56">
+      <c r="C142" s="76">
         <v>5</v>
       </c>
-      <c r="D142" s="56"/>
+      <c r="D142" s="76"/>
       <c r="E142" s="33">
         <f>SUMIF($W$5:$W$1141,C142,$E$5:$E$1141)</f>
         <v>2571</v>
@@ -43246,10 +43329,10 @@
       <c r="B191" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C191" s="56">
+      <c r="C191" s="76">
         <v>6</v>
       </c>
-      <c r="D191" s="56"/>
+      <c r="D191" s="76"/>
       <c r="E191" s="33">
         <f>SUMIF($W$5:$W$1141,C191,$E$5:$E$1141)</f>
         <v>2745</v>

--- a/data/data_real3.xlsx
+++ b/data/data_real3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B69CE-8616-49D1-9A21-A7B170CED3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C8889-DB8C-41E9-856D-DC543BF43D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="3" r:id="rId1"/>
@@ -4799,7 +4799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5068" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="646">
   <si>
     <t>월</t>
   </si>
@@ -6769,9 +6769,6 @@
   </si>
   <si>
     <t>PAIR관계인 확정블록이 있다면.. 확정블록의 정반계열이 후속 검토블록의 가능정반계열로 연결된다</t>
-  </si>
-  <si>
-    <t>fddd</t>
   </si>
 </sst>
 </file>
@@ -8723,8 +8720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A21FCA4-AAE2-4055-B8F7-87592F2EEB7E}">
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9646,103 +9643,103 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
+    <row r="19" spans="1:17" s="7" customFormat="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>45</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>867.5</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>17.8</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>14</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="54">
         <v>45357</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="54">
         <v>45365</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="7">
         <v>8</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="54">
         <v>45351</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="54">
         <v>45364</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
+    <row r="20" spans="1:17" s="7" customFormat="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>45</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>857.1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>17.8</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>14</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="54">
         <v>45357</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="54">
         <v>45365</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>8</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="54">
         <v>45351</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="54">
         <v>45364</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="7">
         <v>13</v>
       </c>
     </row>
@@ -13647,8 +13644,8 @@
       </c>
     </row>
     <row r="99" spans="1:17" s="7" customFormat="1">
-      <c r="A99" s="7" t="s">
-        <v>646</v>
+      <c r="A99" s="7">
+        <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>610</v>

--- a/data/data_real3.xlsx
+++ b/data/data_real3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C8889-DB8C-41E9-856D-DC543BF43D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770CF9E-EC29-49A5-BD5D-37C1882FF569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8720,8 +8720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A21FCA4-AAE2-4055-B8F7-87592F2EEB7E}">
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8842,7 +8842,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>610</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>116</v>
@@ -8995,7 +8995,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>610</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>27</v>
